--- a/pred_ohlcv/54_21/2019-11-02 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 PAY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>45707.71610000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>24355.8129</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>68061.1433</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>60151.1433</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>60551.1433</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>67351.1433</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>72151.1433</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>76951.1433</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>76951.1433</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>205036.6729091919</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>205036.6729091919</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>205785.1870091919</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>204185.1870091919</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>203385.1870091919</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>203385.1870091919</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>206585.1870091919</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>206585.1870091919</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>213795.1870091919</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>213795.1870091919</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>210489.4015091919</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>95893.13686739297</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>117303.461067393</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>118683.700467393</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>118557.878767393</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>111244.492667393</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 PAY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>48107.71610000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>45707.71610000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>49307.71610000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>24355.8129</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>31555.8129</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>68061.1433</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>60151.1433</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>60951.1433</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>76951.1433</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>76951.1433</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>172699.9105091919</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>170811.6305091919</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>171249.3265091919</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>208597.2780091919</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>207036.6729091919</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>205036.6729091919</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>205036.6729091919</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>205785.1870091919</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>204185.1870091919</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>203385.1870091919</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>203385.1870091919</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>206585.1870091919</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>206585.1870091919</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>210489.4015091919</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>116980.0063091919</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>96406.87566739297</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>95893.13686739297</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>96480.13686739297</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>116241.136867393</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>117303.461067393</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>118683.700467393</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>118557.878767393</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>111244.492667393</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
